--- a/src/NRSoft.SwaggerToExcel.HttpApi.Host/SwaggerApi.xlsx
+++ b/src/NRSoft.SwaggerToExcel.HttpApi.Host/SwaggerApi.xlsx
@@ -55,7 +55,7 @@
     <t>{{Type}}</t>
   </si>
   <si>
-    <t>{{IsRequired}}</t>
+    <t>{{IsRequiredString}}</t>
   </si>
   <si>
     <t>{{Summary|&gt;&gt;Table}}</t>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -106,6 +106,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,7 +120,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,15 +155,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -149,69 +226,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -219,31 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,13 +270,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,19 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,145 +414,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +568,30 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,15 +611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -613,6 +628,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -634,41 +669,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/src/NRSoft.SwaggerToExcel.HttpApi.Host/SwaggerApi.xlsx
+++ b/src/NRSoft.SwaggerToExcel.HttpApi.Host/SwaggerApi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>{{Summary}}</t>
   </si>
@@ -34,6 +34,9 @@
     <t>返回值类型</t>
   </si>
   <si>
+    <t>{{ContentType}}</t>
+  </si>
+  <si>
     <t>请求参数</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>{{Type}}</t>
+  </si>
+  <si>
+    <t>{{Kind}}</t>
   </si>
   <si>
     <t>{{IsRequiredString}}</t>
@@ -72,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -105,6 +111,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -112,8 +141,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,14 +186,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,24 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,71 +239,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +574,39 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +616,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,21 +651,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -636,39 +675,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +695,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -841,6 +847,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,9 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1234,65 +1240,69 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>

--- a/src/NRSoft.SwaggerToExcel.HttpApi.Host/SwaggerApi.xlsx
+++ b/src/NRSoft.SwaggerToExcel.HttpApi.Host/SwaggerApi.xlsx
@@ -79,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -111,6 +111,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -127,6 +240,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -135,121 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,61 +276,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,121 +432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,20 +578,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,15 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -635,17 +632,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,140 +695,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,9 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1191,7 +1188,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1274,7 +1271,7 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1288,11 +1285,11 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
@@ -1301,11 +1298,11 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
